--- a/src/main/java/com/topgear/qa/testData/Topgear_TestData.xlsx
+++ b/src/main/java/com/topgear/qa/testData/Topgear_TestData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Selenium\Workspace\TopgearSeleniumTestNG\src\main\java\com\topgear\qa\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBD9F3A-C301-4D10-B27B-D822505E8DBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375D3675-0E23-4D61-90A6-0054A7366BE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{810284C8-4BD7-4B15-A931-861A76CD5C0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{810284C8-4BD7-4B15-A931-861A76CD5C0D}"/>
   </bookViews>
   <sheets>
     <sheet name="DatePicker" sheetId="1" r:id="rId1"/>
     <sheet name="PracticeForm" sheetId="2" r:id="rId2"/>
+    <sheet name="MakeMyTrip" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Month</t>
   </si>
@@ -107,6 +108,30 @@
   </si>
   <si>
     <t>7760242416</t>
+  </si>
+  <si>
+    <t>FromCity</t>
+  </si>
+  <si>
+    <t>ToCity</t>
+  </si>
+  <si>
+    <t>DepartureDate</t>
+  </si>
+  <si>
+    <t>ReturnDate</t>
+  </si>
+  <si>
+    <t>Mumbai, India</t>
+  </si>
+  <si>
+    <t>Goa, India</t>
+  </si>
+  <si>
+    <t>Mon Nov 02 2020</t>
+  </si>
+  <si>
+    <t>Tue Nov 03 2020</t>
   </si>
 </sst>
 </file>
@@ -518,7 +543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1200B17C-0647-4B95-BD53-6FD7639C312B}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -603,4 +628,53 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC745EF-54C2-46C5-AE3C-B5B767D179AF}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>